--- a/study_plan.xlsx
+++ b/study_plan.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarmo\gits\my_study_plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A310609-9D07-406D-A385-B283E90AFB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +25,148 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="45">
+  <si>
+    <t>period 1</t>
+  </si>
+  <si>
+    <t>autumn</t>
+  </si>
+  <si>
+    <t>period 2</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>season</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>period 3</t>
+  </si>
+  <si>
+    <t>period 4</t>
+  </si>
+  <si>
+    <t>summer 1</t>
+  </si>
+  <si>
+    <t>summer 2</t>
+  </si>
+  <si>
+    <t>summer</t>
+  </si>
+  <si>
+    <t>Tuotantotalouden perusteet</t>
+  </si>
+  <si>
+    <t>Koneoppimisen perusteet</t>
+  </si>
+  <si>
+    <t>Lean Startups</t>
+  </si>
+  <si>
+    <t>Tietokantajärjestelmät: SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Human-Centred and Societal Perspectives to Artificial Intelligence (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohjelmointi 2: Tekniikat (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johdatus ohjelmistotuotantoon (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Verkkosivustojen kehittäminen (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johdatus data-analyysiin (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Johdatus todennäköisyyslaskentaan ja tilastolliseen päättelyyn (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tietorakenteet ja algoritmit 1 (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Requirements Engineering (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Full Stack Development (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diskreetti matematiikka (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Differentiaali- ja integraalilaskenta (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conversational Interaction with Artificial Intelligence (5–10 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tietokantajärjestelmät: NoSQL (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ohjelmointi 3: Rajapinnat (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kyberturvallisuus I: perusteet (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software Engineering Project 1 (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deep Learning (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fine-tuning Large Language Models (LLM) (5–10 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ohjelmistotuotteen ja -prosessin hallinta (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mining of Big Datasets (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time Series Analysis using Machine Learning (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software Engineering Project 2 (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diplomityö, johtaminen ja tietotekniikka (30 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yliopistofysiikka 1 (5 op) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yliopistofysiikka 2 (5 op) </t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>soft.dev.</t>
+  </si>
+  <si>
+    <t>math/physics</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +176,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,12 +216,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +609,879 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:AA6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="67.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="67.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="67.140625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="67.140625" style="1" customWidth="1"/>
+    <col min="24" max="25" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="T4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="3"/>
+      <c r="V4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="O5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="P4:Q4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BD3382-FC14-4AAD-BCCF-86B0EE35CB79}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="64.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>2026</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2027</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>